--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value526.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value526.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9286501705752965</v>
+        <v>1.290976762771606</v>
       </c>
       <c r="B1">
-        <v>1.353461066205932</v>
+        <v>2.369591236114502</v>
       </c>
       <c r="C1">
-        <v>1.785177547424989</v>
+        <v>3.029009103775024</v>
       </c>
       <c r="D1">
-        <v>1.955831239502536</v>
+        <v>3.563786745071411</v>
       </c>
       <c r="E1">
-        <v>2.279942679714234</v>
+        <v>1.201399803161621</v>
       </c>
     </row>
   </sheetData>
